--- a/รายการจัดส่งข้าวขวัญ-2021-12-27.xlsx
+++ b/รายการจัดส่งข้าวขวัญ-2021-12-27.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>เลขที่</t>
   </si>
@@ -32,6 +32,96 @@
   </si>
   <si>
     <t>จำนวน(กล่อง)</t>
+  </si>
+  <si>
+    <t>2021122702002066</t>
+  </si>
+  <si>
+    <t>2021-12-27T21:31:38.097+07:00</t>
+  </si>
+  <si>
+    <t> นาง ศิณีนารถ นาคเสน</t>
+  </si>
+  <si>
+    <t>0865690360</t>
+  </si>
+  <si>
+    <t>Mjoy(S.N.)ใช้ไลน์นี้</t>
+  </si>
+  <si>
+    <t>54/189 ซ.26 ม.บ. อินนิซิโอ ปิ่นเกล้า-ศาลายา สำเร็จพัฒนา ศาลากลาง อำเภอบางกรวย นนทบุรี 11130</t>
+  </si>
+  <si>
+    <t>2021122706014316</t>
+  </si>
+  <si>
+    <t>2021-12-27T13:02:31.600+07:00</t>
+  </si>
+  <si>
+    <t> นาง ศศิธร ศศิรัตนนิกุล</t>
+  </si>
+  <si>
+    <t>0897768918</t>
+  </si>
+  <si>
+    <t>Sasitorn_Som</t>
+  </si>
+  <si>
+    <t>88 ม.กาญจน์สิริ  หนองละลอก บ้านค่าย ระยอง 21120</t>
+  </si>
+  <si>
+    <t>2021122705593615</t>
+  </si>
+  <si>
+    <t>2021-12-27T13:08:01.811+07:00</t>
+  </si>
+  <si>
+    <t> นาง มณีพศุตม์ ศักดิ์สุธี</t>
+  </si>
+  <si>
+    <t>0925491915</t>
+  </si>
+  <si>
+    <t>🇹🇭MANEE🇹🇭</t>
+  </si>
+  <si>
+    <t>82/25 ม.1 (สำนักงานสรรพสามิตพื้นที่ปทุมธานี 1 รังสิต-ปทุมธานี บ้านกลาง เมืองปทุมธานี ปทุมธานี 12000</t>
+  </si>
+  <si>
+    <t>2021122702032594</t>
+  </si>
+  <si>
+    <t>2021-12-27T09:46:45.760+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว สุภาภรณ์​ แซ่ลิ่ม</t>
+  </si>
+  <si>
+    <t>0985592814</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>902/133​ ซอย​ 9​ หมู่บ้านประกายทอง เลียบคลองชลประทาน หาดใหญ่ อำเภอหาดใหญ่ สงขลา 90110</t>
+  </si>
+  <si>
+    <t>2021122701435970</t>
+  </si>
+  <si>
+    <t>2021-12-27T08:44:56.317+07:00</t>
+  </si>
+  <si>
+    <t> นางสาว ธนวรรณ โล่ซ้าย</t>
+  </si>
+  <si>
+    <t>0818085348</t>
+  </si>
+  <si>
+    <t>วัน ดี</t>
+  </si>
+  <si>
+    <t>110 ซอยกองทุนสงเคราะห์ กาญจนวนิช บ้านพรุ อำเภอหาดใหญ่ สงขลา 90250</t>
   </si>
 </sst>
 </file>
@@ -71,7 +161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -100,6 +190,121 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
